--- a/Implementación/Test 10/decisiones_w3.xlsx
+++ b/Implementación/Test 10/decisiones_w3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3042D773-410A-4301-B0AB-AFB522306308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{124D8E66-C8FD-483E-9789-4375D9659E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{143C1B35-13AA-4947-8A87-B23954757C49}"/>
   </bookViews>
